--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_18_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_18_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168670.5777840263</v>
+        <v>165775.3767074602</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>6.876045741711437</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -738,62 +738,62 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>6.056421089299432</v>
       </c>
-      <c r="D3" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,73 +817,73 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="Y4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>42.18787955679159</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>47.89722928791056</v>
       </c>
       <c r="G5" t="n">
-        <v>47.89722928791016</v>
+        <v>47.89722928791056</v>
       </c>
       <c r="H5" t="n">
-        <v>35.3118338150798</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>47.89722928791056</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>47.89722928791016</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>47.89722928791016</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.18787955679126</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>47.89722928791056</v>
       </c>
       <c r="D6" t="n">
-        <v>47.89722928791016</v>
+        <v>47.89722928791056</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>47.89722928791016</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>47.89722928791056</v>
       </c>
       <c r="S6" t="n">
-        <v>47.89722928791016</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>42.18787955679159</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>18.22714793620125</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>47.89722928791016</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>47.89722928791016</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>44.07161288389789</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.78634802460309</v>
+        <v>27.78634802460302</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>47.89722928791056</v>
       </c>
       <c r="T7" t="n">
-        <v>47.89722928791016</v>
+        <v>47.89722928791056</v>
       </c>
       <c r="U7" t="n">
-        <v>14.40153153218817</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>93.0535422484503</v>
+      </c>
+      <c r="E8" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G8" t="n">
         <v>13.25317302789425</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>21.12316271950942</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>107.3006592262483</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>95.35828607663996</v>
       </c>
       <c r="D9" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="F9" t="n">
         <v>144.6751566710423</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>32.07159191921401</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>127.4298779958539</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>9.177839155320683</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>127.4298779958539</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>118.2520388405333</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>127.553294252498</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>187.6301673233166</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>116.9543860536883</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>343.2750723877087</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.5878658187009</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>291.1886223546606</v>
       </c>
       <c r="I14" t="n">
         <v>28.70579849362701</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.5799308037514</v>
+        <v>71.51356830700018</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4564987129907</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9684631721218</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,10 +1670,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>64.70841585774909</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.8760502306935</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4235298987631</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>91.84878806682688</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.19848714147011</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>187.1591513285542</v>
+        <v>74.64547063198121</v>
       </c>
       <c r="T16" t="n">
         <v>218.9090740641936</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2036695858855</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
         <v>323.072839268469</v>
@@ -1853,10 +1853,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
         <v>255.2416659947559</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295173</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545723</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645691</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
         <v>354.6277363038396</v>
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
         <v>117.0052706659984</v>
@@ -2011,16 +2011,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707176</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453007</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2065,7 +2065,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
         <v>186.9744509998808</v>
@@ -2081,7 +2081,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
         <v>323.072839268469</v>
@@ -2090,10 +2090,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
         <v>255.2416659947559</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W20" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X20" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
         <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510279</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W22" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
         <v>323.072839268469</v>
@@ -2327,10 +2327,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
         <v>255.2416659947559</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295169</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W23" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510296</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453005</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V25" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W25" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295169</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V26" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707165</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453002</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221873</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295169</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943585</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453002</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221567</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221524</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3266,7 +3266,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D35" t="n">
         <v>323.072839268469</v>
@@ -3275,10 +3275,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H35" t="n">
         <v>255.2416659947559</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295173</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U35" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y35" t="n">
         <v>354.6277363038396</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D37" t="n">
         <v>117.0052706659984</v>
@@ -3433,16 +3433,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453162</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221535</v>
+        <v>42.04747230221573</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3478,16 +3478,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y37" t="n">
         <v>186.9744509998808</v>
@@ -3515,7 +3515,7 @@
         <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
         <v>255.2416659947559</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684688</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947557</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-8.30056023914949e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295161</v>
+        <v>60.32014642295186</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651989</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262549</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464137</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659982</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E43" t="n">
-        <v>114.823760294355</v>
+        <v>114.8237602943538</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707171</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G43" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053443036</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139452993</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.0474723022156</v>
+        <v>42.04747230221586</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424831</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401419</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U43" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.099453036823</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D44" t="n">
-        <v>323.0728392684688</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947557</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295159</v>
+        <v>60.32014642295186</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V44" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651989</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262549</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464137</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659982</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E46" t="n">
-        <v>114.823760294355</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707171</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G46" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442995</v>
+        <v>110.1245053442977</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139452993</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221561</v>
+        <v>42.04747230221586</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424831</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401419</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U46" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V46" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W46" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.099453036823</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="C2" t="n">
         <v>21.38658590694733</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="F2" t="n">
         <v>14.44108515774386</v>
       </c>
-      <c r="D2" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="E2" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>7.495584408540386</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.5500836593369149</v>
       </c>
       <c r="H2" t="n">
         <v>0.5500836593369149</v>
@@ -4328,25 +4328,25 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J2" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L2" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M2" t="n">
-        <v>13.8896123982571</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="N2" t="n">
-        <v>20.69689768255142</v>
+        <v>16.32320354868328</v>
       </c>
       <c r="O2" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="P2" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q2" t="n">
         <v>27.50418296684575</v>
@@ -4355,25 +4355,25 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C3" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D3" t="n">
         <v>7.495584408540386</v>
@@ -4395,13 +4395,13 @@
         <v>7.495584408540386</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I3" t="n">
         <v>0.5500836593369149</v>
@@ -4416,10 +4416,10 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M3" t="n">
-        <v>12.57800130961213</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N3" t="n">
-        <v>19.38528659390645</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O3" t="n">
         <v>26.19257187820077</v>
@@ -4431,28 +4431,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U3" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V3" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W3" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X3" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H4" t="n">
         <v>0.5500836593369149</v>
@@ -4489,13 +4489,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L4" t="n">
         <v>7.357368943631237</v>
       </c>
       <c r="M4" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N4" t="n">
         <v>20.69689768255142</v>
@@ -4507,31 +4507,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R4" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S4" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T4" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U4" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V4" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W4" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X4" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.82683778212515</v>
+        <v>143.2078774668841</v>
       </c>
       <c r="C5" t="n">
-        <v>94.82683778212515</v>
+        <v>143.2078774668841</v>
       </c>
       <c r="D5" t="n">
-        <v>94.82683778212515</v>
+        <v>143.2078774668841</v>
       </c>
       <c r="E5" t="n">
-        <v>94.82683778212515</v>
+        <v>100.5938577125492</v>
       </c>
       <c r="F5" t="n">
-        <v>87.88133703292168</v>
+        <v>52.21281802779099</v>
       </c>
       <c r="G5" t="n">
-        <v>39.50029734816393</v>
+        <v>3.831778343032845</v>
       </c>
       <c r="H5" t="n">
-        <v>3.831778343032813</v>
+        <v>3.831778343032845</v>
       </c>
       <c r="I5" t="n">
-        <v>3.831778343032813</v>
+        <v>3.831778343032845</v>
       </c>
       <c r="J5" t="n">
-        <v>3.831778343032813</v>
+        <v>3.831778343032845</v>
       </c>
       <c r="K5" t="n">
-        <v>3.831778343032813</v>
+        <v>39.93944131633097</v>
       </c>
       <c r="L5" t="n">
-        <v>13.22648319324943</v>
+        <v>49.3341461665479</v>
       </c>
       <c r="M5" t="n">
-        <v>55.34933994904787</v>
+        <v>96.75240316157935</v>
       </c>
       <c r="N5" t="n">
-        <v>102.767596944079</v>
+        <v>144.1706601566108</v>
       </c>
       <c r="O5" t="n">
-        <v>144.1706601566096</v>
+        <v>191.5889171516422</v>
       </c>
       <c r="P5" t="n">
-        <v>144.1706601566096</v>
+        <v>191.5889171516422</v>
       </c>
       <c r="Q5" t="n">
-        <v>191.5889171516407</v>
+        <v>191.5889171516422</v>
       </c>
       <c r="R5" t="n">
-        <v>191.5889171516407</v>
+        <v>143.2078774668841</v>
       </c>
       <c r="S5" t="n">
-        <v>191.5889171516407</v>
+        <v>143.2078774668841</v>
       </c>
       <c r="T5" t="n">
-        <v>143.2078774668829</v>
+        <v>143.2078774668841</v>
       </c>
       <c r="U5" t="n">
-        <v>94.82683778212515</v>
+        <v>143.2078774668841</v>
       </c>
       <c r="V5" t="n">
-        <v>94.82683778212515</v>
+        <v>143.2078774668841</v>
       </c>
       <c r="W5" t="n">
-        <v>94.82683778212515</v>
+        <v>143.2078774668841</v>
       </c>
       <c r="X5" t="n">
-        <v>94.82683778212515</v>
+        <v>143.2078774668841</v>
       </c>
       <c r="Y5" t="n">
-        <v>94.82683778212515</v>
+        <v>143.2078774668841</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.5938577125483</v>
+        <v>100.5938577125492</v>
       </c>
       <c r="C6" t="n">
-        <v>100.5938577125483</v>
+        <v>52.21281802779099</v>
       </c>
       <c r="D6" t="n">
-        <v>52.21281802779056</v>
+        <v>3.831778343032845</v>
       </c>
       <c r="E6" t="n">
-        <v>52.21281802779056</v>
+        <v>3.831778343032845</v>
       </c>
       <c r="F6" t="n">
-        <v>3.831778343032813</v>
+        <v>3.831778343032845</v>
       </c>
       <c r="G6" t="n">
-        <v>3.831778343032813</v>
+        <v>3.831778343032845</v>
       </c>
       <c r="H6" t="n">
-        <v>3.831778343032813</v>
+        <v>3.831778343032845</v>
       </c>
       <c r="I6" t="n">
-        <v>3.831778343032813</v>
+        <v>3.831778343032845</v>
       </c>
       <c r="J6" t="n">
-        <v>3.831778343032813</v>
+        <v>3.831778343032845</v>
       </c>
       <c r="K6" t="n">
-        <v>3.831778343032813</v>
+        <v>3.831778343032845</v>
       </c>
       <c r="L6" t="n">
-        <v>45.407782064505</v>
+        <v>45.40778206450523</v>
       </c>
       <c r="M6" t="n">
-        <v>92.82603905953607</v>
+        <v>92.82603905953668</v>
       </c>
       <c r="N6" t="n">
-        <v>140.2442960545671</v>
+        <v>140.2442960545681</v>
       </c>
       <c r="O6" t="n">
-        <v>187.6625530495982</v>
+        <v>167.0234425055033</v>
       </c>
       <c r="P6" t="n">
-        <v>191.5889171516407</v>
+        <v>191.5889171516422</v>
       </c>
       <c r="Q6" t="n">
-        <v>191.5889171516407</v>
+        <v>191.5889171516422</v>
       </c>
       <c r="R6" t="n">
-        <v>191.5889171516407</v>
+        <v>143.2078774668841</v>
       </c>
       <c r="S6" t="n">
-        <v>143.2078774668829</v>
+        <v>143.2078774668841</v>
       </c>
       <c r="T6" t="n">
-        <v>143.2078774668829</v>
+        <v>100.5938577125492</v>
       </c>
       <c r="U6" t="n">
-        <v>143.2078774668829</v>
+        <v>100.5938577125492</v>
       </c>
       <c r="V6" t="n">
-        <v>143.2078774668829</v>
+        <v>100.5938577125492</v>
       </c>
       <c r="W6" t="n">
-        <v>143.2078774668829</v>
+        <v>100.5938577125492</v>
       </c>
       <c r="X6" t="n">
-        <v>143.2078774668829</v>
+        <v>100.5938577125492</v>
       </c>
       <c r="Y6" t="n">
-        <v>143.2078774668829</v>
+        <v>100.5938577125492</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.5938577125483</v>
+        <v>48.3485590338388</v>
       </c>
       <c r="C7" t="n">
-        <v>100.5938577125483</v>
+        <v>48.3485590338388</v>
       </c>
       <c r="D7" t="n">
-        <v>100.5938577125483</v>
+        <v>48.3485590338388</v>
       </c>
       <c r="E7" t="n">
-        <v>100.5938577125483</v>
+        <v>48.3485590338388</v>
       </c>
       <c r="F7" t="n">
-        <v>100.5938577125483</v>
+        <v>48.3485590338388</v>
       </c>
       <c r="G7" t="n">
-        <v>52.21281802779056</v>
+        <v>48.3485590338388</v>
       </c>
       <c r="H7" t="n">
-        <v>52.21281802779056</v>
+        <v>48.3485590338388</v>
       </c>
       <c r="I7" t="n">
-        <v>3.831778343032813</v>
+        <v>48.3485590338388</v>
       </c>
       <c r="J7" t="n">
-        <v>3.831778343032813</v>
+        <v>3.831778343032845</v>
       </c>
       <c r="K7" t="n">
-        <v>51.25003533806388</v>
+        <v>51.2500353380643</v>
       </c>
       <c r="L7" t="n">
-        <v>98.66829233309494</v>
+        <v>96.75240316157932</v>
       </c>
       <c r="M7" t="n">
-        <v>98.66829233309494</v>
+        <v>144.1706601566108</v>
       </c>
       <c r="N7" t="n">
-        <v>144.1706601566096</v>
+        <v>144.1706601566108</v>
       </c>
       <c r="O7" t="n">
-        <v>144.1706601566096</v>
+        <v>191.5889171516422</v>
       </c>
       <c r="P7" t="n">
-        <v>191.5889171516407</v>
+        <v>191.5889171516422</v>
       </c>
       <c r="Q7" t="n">
-        <v>163.5218989449709</v>
+        <v>163.5218989449725</v>
       </c>
       <c r="R7" t="n">
-        <v>163.5218989449709</v>
+        <v>163.5218989449725</v>
       </c>
       <c r="S7" t="n">
-        <v>163.5218989449709</v>
+        <v>115.1408592602144</v>
       </c>
       <c r="T7" t="n">
-        <v>115.1408592602131</v>
+        <v>66.75981957545622</v>
       </c>
       <c r="U7" t="n">
-        <v>100.5938577125483</v>
+        <v>66.75981957545622</v>
       </c>
       <c r="V7" t="n">
-        <v>100.5938577125483</v>
+        <v>66.75981957545622</v>
       </c>
       <c r="W7" t="n">
-        <v>100.5938577125483</v>
+        <v>66.75981957545622</v>
       </c>
       <c r="X7" t="n">
-        <v>100.5938577125483</v>
+        <v>66.75981957545622</v>
       </c>
       <c r="Y7" t="n">
-        <v>100.5938577125483</v>
+        <v>66.75981957545622</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>324.1796005252896</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="C8" t="n">
-        <v>178.043078635348</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="D8" t="n">
-        <v>178.043078635348</v>
+        <v>463.3706216660279</v>
       </c>
       <c r="E8" t="n">
-        <v>178.043078635348</v>
+        <v>317.2340997760862</v>
       </c>
       <c r="F8" t="n">
         <v>171.0975778861445</v>
@@ -4826,28 +4826,28 @@
         <v>578.700626684169</v>
       </c>
       <c r="R8" t="n">
-        <v>578.700626684169</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="S8" t="n">
-        <v>578.700626684169</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="T8" t="n">
-        <v>432.5641047942273</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="U8" t="n">
-        <v>432.5641047942273</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="V8" t="n">
-        <v>432.5641047942273</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="W8" t="n">
-        <v>324.1796005252896</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="X8" t="n">
-        <v>324.1796005252896</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="Y8" t="n">
-        <v>324.1796005252896</v>
+        <v>557.3640986846646</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>546.3050792910236</v>
+      </c>
+      <c r="C9" t="n">
+        <v>449.9835782035085</v>
+      </c>
+      <c r="D9" t="n">
         <v>303.8470563135668</v>
-      </c>
-      <c r="C9" t="n">
-        <v>303.8470563135668</v>
-      </c>
-      <c r="D9" t="n">
-        <v>157.7105344236251</v>
       </c>
       <c r="E9" t="n">
         <v>157.7105344236251</v>
@@ -4884,7 +4884,7 @@
         <v>11.57401253368338</v>
       </c>
       <c r="K9" t="n">
-        <v>50.41925783498755</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L9" t="n">
         <v>109.297302116636</v>
@@ -4905,28 +4905,28 @@
         <v>578.700626684169</v>
       </c>
       <c r="R9" t="n">
-        <v>578.700626684169</v>
+        <v>546.3050792910236</v>
       </c>
       <c r="S9" t="n">
-        <v>578.700626684169</v>
+        <v>546.3050792910236</v>
       </c>
       <c r="T9" t="n">
-        <v>578.700626684169</v>
+        <v>546.3050792910236</v>
       </c>
       <c r="U9" t="n">
-        <v>449.9835782035085</v>
+        <v>546.3050792910236</v>
       </c>
       <c r="V9" t="n">
-        <v>449.9835782035085</v>
+        <v>546.3050792910236</v>
       </c>
       <c r="W9" t="n">
-        <v>449.9835782035085</v>
+        <v>546.3050792910236</v>
       </c>
       <c r="X9" t="n">
-        <v>449.9835782035085</v>
+        <v>546.3050792910236</v>
       </c>
       <c r="Y9" t="n">
-        <v>303.8470563135668</v>
+        <v>546.3050792910236</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.7105344236251</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="C10" t="n">
         <v>157.7105344236251</v>
       </c>
       <c r="D10" t="n">
-        <v>157.7105344236251</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E10" t="n">
-        <v>157.7105344236251</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F10" t="n">
-        <v>157.7105344236251</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G10" t="n">
         <v>11.57401253368338</v>
@@ -4969,7 +4969,7 @@
         <v>238.5008760846566</v>
       </c>
       <c r="M10" t="n">
-        <v>292.2438164755054</v>
+        <v>381.7292811889885</v>
       </c>
       <c r="N10" t="n">
         <v>435.4722215798372</v>
@@ -4981,31 +4981,31 @@
         <v>578.700626684169</v>
       </c>
       <c r="Q10" t="n">
-        <v>578.700626684169</v>
+        <v>569.430082082835</v>
       </c>
       <c r="R10" t="n">
-        <v>578.700626684169</v>
+        <v>569.430082082835</v>
       </c>
       <c r="S10" t="n">
-        <v>432.5641047942273</v>
+        <v>569.430082082835</v>
       </c>
       <c r="T10" t="n">
-        <v>432.5641047942273</v>
+        <v>569.430082082835</v>
       </c>
       <c r="U10" t="n">
-        <v>286.4275829042856</v>
+        <v>569.430082082835</v>
       </c>
       <c r="V10" t="n">
-        <v>286.4275829042856</v>
+        <v>569.430082082835</v>
       </c>
       <c r="W10" t="n">
-        <v>286.4275829042856</v>
+        <v>569.430082082835</v>
       </c>
       <c r="X10" t="n">
-        <v>157.7105344236251</v>
+        <v>569.430082082835</v>
       </c>
       <c r="Y10" t="n">
-        <v>157.7105344236251</v>
+        <v>449.9835782035085</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1754.744438482649</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C11" t="n">
-        <v>1754.744438482649</v>
+        <v>810.5660676371782</v>
       </c>
       <c r="D11" t="n">
-        <v>1396.478739875899</v>
+        <v>452.3003690304277</v>
       </c>
       <c r="E11" t="n">
-        <v>1010.690487277654</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389511</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
         <v>1573.77673900139</v>
@@ -5069,22 +5069,22 @@
         <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V11" t="n">
-        <v>2884.252265792697</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W11" t="n">
-        <v>2531.483610522582</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X11" t="n">
-        <v>2531.483610522582</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y11" t="n">
-        <v>2141.344278546771</v>
+        <v>1308.37029594375</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>798.5065461617547</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C13" t="n">
-        <v>629.5703632338478</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D13" t="n">
-        <v>479.4537238215121</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E13" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F13" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5224,25 +5224,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1719.328347357447</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1497.561731926972</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1497.561731926972</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V13" t="n">
-        <v>1497.561731926972</v>
+        <v>880.22423616213</v>
       </c>
       <c r="W13" t="n">
-        <v>1208.144561890012</v>
+        <v>590.8070661251693</v>
       </c>
       <c r="X13" t="n">
-        <v>980.1550109919945</v>
+        <v>468.9531604059533</v>
       </c>
       <c r="Y13" t="n">
-        <v>980.1550109919945</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1631.401198871171</v>
+        <v>2336.517025231143</v>
       </c>
       <c r="C14" t="n">
-        <v>1262.43868193076</v>
+        <v>1967.554508290731</v>
       </c>
       <c r="D14" t="n">
-        <v>904.1729833240092</v>
+        <v>1609.288809683981</v>
       </c>
       <c r="E14" t="n">
-        <v>518.3847307257652</v>
+        <v>1223.500557085737</v>
       </c>
       <c r="F14" t="n">
-        <v>518.3847307257652</v>
+        <v>812.514652296129</v>
       </c>
       <c r="G14" t="n">
-        <v>103.6495127270774</v>
+        <v>397.7794342974418</v>
       </c>
       <c r="H14" t="n">
-        <v>103.6495127270774</v>
+        <v>103.6495127270775</v>
       </c>
       <c r="I14" t="n">
-        <v>74.6537566729087</v>
+        <v>74.65375667290874</v>
       </c>
       <c r="J14" t="n">
-        <v>291.5854644202675</v>
+        <v>291.5854644202686</v>
       </c>
       <c r="K14" t="n">
-        <v>667.4483788354737</v>
+        <v>667.4483788354755</v>
       </c>
       <c r="L14" t="n">
-        <v>1170.641322097873</v>
+        <v>1170.641322097875</v>
       </c>
       <c r="M14" t="n">
-        <v>1762.209863821707</v>
+        <v>1762.209863821709</v>
       </c>
       <c r="N14" t="n">
-        <v>2367.964411395335</v>
+        <v>2367.964411395337</v>
       </c>
       <c r="O14" t="n">
-        <v>2926.625992245014</v>
+        <v>2926.625992245016</v>
       </c>
       <c r="P14" t="n">
-        <v>3368.929725548785</v>
+        <v>3368.929725548787</v>
       </c>
       <c r="Q14" t="n">
-        <v>3652.908662472303</v>
+        <v>3652.908662472305</v>
       </c>
       <c r="R14" t="n">
-        <v>3732.687833645435</v>
+        <v>3732.687833645437</v>
       </c>
       <c r="S14" t="n">
-        <v>3630.081842934575</v>
+        <v>3660.451906062608</v>
       </c>
       <c r="T14" t="n">
-        <v>3425.58032908307</v>
+        <v>3660.451906062608</v>
       </c>
       <c r="U14" t="n">
-        <v>3425.58032908307</v>
+        <v>3406.94840790895</v>
       </c>
       <c r="V14" t="n">
-        <v>3094.517441739499</v>
+        <v>3075.885520565379</v>
       </c>
       <c r="W14" t="n">
-        <v>2741.748786469385</v>
+        <v>2723.116865295265</v>
       </c>
       <c r="X14" t="n">
-        <v>2368.283028208305</v>
+        <v>2723.116865295265</v>
       </c>
       <c r="Y14" t="n">
-        <v>1978.143696232493</v>
+        <v>2723.116865295265</v>
       </c>
     </row>
     <row r="15">
@@ -5346,37 +5346,37 @@
         <v>312.3906351733116</v>
       </c>
       <c r="G15" t="n">
-        <v>176.2079701167358</v>
+        <v>176.2079701167359</v>
       </c>
       <c r="H15" t="n">
-        <v>87.44869906159913</v>
+        <v>87.44869906159917</v>
       </c>
       <c r="I15" t="n">
-        <v>74.6537566729087</v>
+        <v>74.65375667290874</v>
       </c>
       <c r="J15" t="n">
         <v>185.0389487192674</v>
       </c>
       <c r="K15" t="n">
-        <v>451.8596485461271</v>
+        <v>451.8596485461272</v>
       </c>
       <c r="L15" t="n">
-        <v>856.9555483380169</v>
+        <v>856.955548338017</v>
       </c>
       <c r="M15" t="n">
         <v>1349.040224428221</v>
       </c>
       <c r="N15" t="n">
-        <v>1868.557562566627</v>
+        <v>1583.302972275406</v>
       </c>
       <c r="O15" t="n">
-        <v>2321.594635814184</v>
+        <v>2036.340045522963</v>
       </c>
       <c r="P15" t="n">
-        <v>2369.770783087923</v>
+        <v>2380.60917101475</v>
       </c>
       <c r="Q15" t="n">
-        <v>2549.986379918511</v>
+        <v>2560.824767845339</v>
       </c>
       <c r="R15" t="n">
         <v>2560.824767845339</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>897.359291698079</v>
+        <v>503.9180590932605</v>
       </c>
       <c r="C16" t="n">
-        <v>831.9972554781305</v>
+        <v>334.9818761653536</v>
       </c>
       <c r="D16" t="n">
-        <v>681.8806160657947</v>
+        <v>334.9818761653536</v>
       </c>
       <c r="E16" t="n">
-        <v>533.9675224834015</v>
+        <v>334.9818761653536</v>
       </c>
       <c r="F16" t="n">
-        <v>387.0775749854911</v>
+        <v>334.9818761653536</v>
       </c>
       <c r="G16" t="n">
-        <v>219.5260090959017</v>
+        <v>167.4303102757642</v>
       </c>
       <c r="H16" t="n">
-        <v>74.65375667290871</v>
+        <v>167.4303102757642</v>
       </c>
       <c r="I16" t="n">
-        <v>74.65375667290871</v>
+        <v>74.65375667290874</v>
       </c>
       <c r="J16" t="n">
-        <v>130.2584027970759</v>
+        <v>130.2584027970758</v>
       </c>
       <c r="K16" t="n">
-        <v>351.470754165011</v>
+        <v>351.4707541650109</v>
       </c>
       <c r="L16" t="n">
-        <v>690.0728377719803</v>
+        <v>690.0728377719802</v>
       </c>
       <c r="M16" t="n">
         <v>1057.470382514708</v>
@@ -5458,28 +5458,28 @@
         <v>2082.416205238323</v>
       </c>
       <c r="R16" t="n">
-        <v>1999.387430347949</v>
+        <v>2082.416205238323</v>
       </c>
       <c r="S16" t="n">
-        <v>1810.337782541328</v>
+        <v>2007.016739953493</v>
       </c>
       <c r="T16" t="n">
-        <v>1589.217505708809</v>
+        <v>1785.896463120974</v>
       </c>
       <c r="U16" t="n">
-        <v>1589.217505708809</v>
+        <v>1496.801847377656</v>
       </c>
       <c r="V16" t="n">
-        <v>1589.217505708809</v>
+        <v>1242.117359171769</v>
       </c>
       <c r="W16" t="n">
-        <v>1299.800335671849</v>
+        <v>952.7001891348079</v>
       </c>
       <c r="X16" t="n">
-        <v>1299.800335671849</v>
+        <v>724.7106382367906</v>
       </c>
       <c r="Y16" t="n">
-        <v>1079.007756528319</v>
+        <v>503.9180590932605</v>
       </c>
     </row>
     <row r="17">
@@ -5501,55 +5501,55 @@
         <v>1104.234664943805</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796664</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
         <v>4017.391409283564</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W17" t="n">
         <v>3175.879079437413</v>
@@ -5589,7 +5589,7 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
         <v>216.5575109835859</v>
@@ -5598,22 +5598,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277775</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.315654538066</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1522.315654538066</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O18" t="n">
-        <v>2028.720609486316</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477715</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E19" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H19" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5692,10 +5692,10 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S19" t="n">
         <v>2333.272818966196</v>
@@ -5707,13 +5707,13 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
         <v>1022.581387254981</v>
@@ -5738,16 +5738,16 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
         <v>337.493301607683</v>
@@ -5765,34 +5765,34 @@
         <v>2681.771598889753</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
         <v>2476.132983851459</v>
@@ -5826,31 +5826,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L21" t="n">
-        <v>973.3971899277775</v>
+        <v>535.3638672866908</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.315654538066</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N21" t="n">
-        <v>2100.171002464469</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O21" t="n">
-        <v>2143.777656741113</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E22" t="n">
         <v>501.68499580398</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H22" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042784</v>
@@ -5938,10 +5938,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
         <v>1664.992195357083</v>
@@ -5978,61 +5978,61 @@
         <v>725.1782574796666</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
         <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K24" t="n">
-        <v>510.5988892561712</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L24" t="n">
-        <v>510.5988892561712</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M24" t="n">
-        <v>1059.51735386646</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N24" t="n">
-        <v>1637.372701792863</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O24" t="n">
-        <v>2143.777656741113</v>
+        <v>2474.99885540425</v>
       </c>
       <c r="P24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.862419750211</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477728</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609058</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039814</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315397</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443613</v>
+        <v>459.528702044362</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902795</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040894</v>
@@ -6166,7 +6166,7 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R25" t="n">
         <v>2487.049233352543</v>
@@ -6181,16 +6181,16 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J26" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6242,34 +6242,34 @@
         <v>3311.067850233286</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J27" t="n">
-        <v>216.5575109835859</v>
+        <v>165.6257438946549</v>
       </c>
       <c r="K27" t="n">
-        <v>443.9018152139996</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L27" t="n">
-        <v>897.700444808327</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M27" t="n">
-        <v>1446.618909418616</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N27" t="n">
-        <v>2024.474257345018</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,73 +6358,73 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502094</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C28" t="n">
-        <v>735.855734147771</v>
+        <v>735.8557341477709</v>
       </c>
       <c r="D28" t="n">
         <v>617.668592060904</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039795</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443604</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902779</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.04923335254</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y28" t="n">
         <v>1022.58138725498</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E29" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.178257479667</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050961</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746736</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233285</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612701</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767225</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J30" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="K30" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249805</v>
       </c>
       <c r="L30" t="n">
-        <v>973.3971899277776</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.315654538067</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N30" t="n">
-        <v>1662.137679823382</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O30" t="n">
-        <v>2168.542634771632</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P30" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502127</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477745</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609075</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O31" t="n">
         <v>2087.878830313936</v>
@@ -6640,31 +6640,31 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073045</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254984</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
         <v>1458.093420216582</v>
@@ -6686,7 +6686,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
@@ -6701,22 +6701,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.907144767228</v>
@@ -6734,16 +6734,16 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W32" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>670.3561405779133</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>1219.274605188202</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6844,13 +6844,13 @@
         <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
         <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511622</v>
@@ -6862,7 +6862,7 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6880,16 +6880,16 @@
         <v>2529.521427597204</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
         <v>1664.992195357083</v>
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E35" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796669</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J35" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951441</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050962</v>
@@ -6950,37 +6950,37 @@
         <v>2681.771598889753</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W35" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835859</v>
@@ -7020,22 +7020,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>688.8525027970471</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.770967407336</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.626315333739</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609057</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039813</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315399</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749458</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897946</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902791</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O37" t="n">
         <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
         <v>2529.521427597205</v>
@@ -7126,19 +7126,19 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G38" t="n">
         <v>342.8002736162838</v>
@@ -7175,7 +7175,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050964</v>
@@ -7190,7 +7190,7 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.907144767228</v>
@@ -7202,7 +7202,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U38" t="n">
         <v>3795.851627400162</v>
@@ -7217,7 +7217,7 @@
         <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>688.8525027970471</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.770967407336</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.626315333739</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7309,19 +7309,19 @@
         <v>872.8624197502099</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897931</v>
@@ -7330,13 +7330,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7354,16 +7354,16 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
         <v>1664.992195357083</v>
@@ -7372,7 +7372,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216584</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796695</v>
+        <v>725.1782574796667</v>
       </c>
       <c r="G41" t="n">
-        <v>342.800273616286</v>
+        <v>342.8002736162831</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511856</v>
+        <v>84.98040897511538</v>
       </c>
       <c r="I41" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951443</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
         <v>4142.907144767228</v>
@@ -7439,22 +7439,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>875.4343898857002</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
         <v>2555.644190323788</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502131</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477751</v>
+        <v>735.8557341477707</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609082</v>
+        <v>617.6685920609035</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039838</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F43" t="n">
-        <v>386.724545631542</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749481</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897929</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042787</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902791</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237504</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357086</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645594</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073045</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254984</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
         <v>1104.234664943806</v>
@@ -7637,61 +7637,61 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162836</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233286</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511619</v>
+        <v>165.6257438946549</v>
       </c>
       <c r="K45" t="n">
-        <v>388.0214583249805</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L45" t="n">
-        <v>841.820087919308</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.770967407336</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N45" t="n">
-        <v>1815.626315333739</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,73 +7780,73 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502087</v>
+        <v>872.8624197502085</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477706</v>
+        <v>735.8557341477701</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609037</v>
+        <v>617.6685920609029</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039795</v>
+        <v>501.6849958039784</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315366</v>
       </c>
       <c r="G46" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749424</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897929</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443615</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902793</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597202</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352539</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966193</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127666</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237499</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357081</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645589</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.58138725498</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>75.25012806000501</v>
+        <v>68.65190234826171</v>
       </c>
       <c r="K2" t="n">
         <v>51.64037691895487</v>
       </c>
       <c r="L2" t="n">
-        <v>26.78994699523963</v>
+        <v>33.66599273695107</v>
       </c>
       <c r="M2" t="n">
-        <v>4.69569289246121</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.977105843813376</v>
+        <v>11.39497870630645</v>
       </c>
       <c r="P2" t="n">
-        <v>40.80429423377234</v>
+        <v>47.68033997548378</v>
       </c>
       <c r="Q2" t="n">
-        <v>86.17771137138155</v>
+        <v>79.30166562967011</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8137,16 +8137,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>66.8758356870906</v>
+        <v>59.99978994537916</v>
       </c>
       <c r="L4" t="n">
-        <v>46.57119745853053</v>
+        <v>53.44724320024197</v>
       </c>
       <c r="M4" t="n">
-        <v>52.40982870423341</v>
+        <v>52.68764873420156</v>
       </c>
       <c r="N4" t="n">
-        <v>43.66145635451461</v>
+        <v>43.38363632454646</v>
       </c>
       <c r="O4" t="n">
         <v>54.49555222612061</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>49.13964041725595</v>
+        <v>49.13964041725578</v>
       </c>
       <c r="K5" t="n">
-        <v>22.39655431648737</v>
+        <v>58.86894115820242</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>5.348889130538055</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>10.06324141720645</v>
+        <v>16.13919473286353</v>
       </c>
       <c r="P5" t="n">
-        <v>7.744748072491092</v>
+        <v>7.744748072490836</v>
       </c>
       <c r="Q5" t="n">
-        <v>102.3725525490399</v>
+        <v>54.47532326112957</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>48.27515941146403</v>
+        <v>48.27515941146395</v>
       </c>
       <c r="K6" t="n">
-        <v>3.565669189539534</v>
+        <v>3.565669189539364</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>33.83618906232633</v>
+        <v>33.8361890623262</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>95.91587395261269</v>
+        <v>95.91587395261298</v>
       </c>
       <c r="L7" t="n">
-        <v>79.13668575112098</v>
+        <v>77.20144416373091</v>
       </c>
       <c r="M7" t="n">
-        <v>29.64643178163665</v>
+        <v>77.54366106954708</v>
       </c>
       <c r="N7" t="n">
-        <v>66.96659874292942</v>
+        <v>21.00461104240945</v>
       </c>
       <c r="O7" t="n">
-        <v>39.91942962643668</v>
+        <v>87.81665891434713</v>
       </c>
       <c r="P7" t="n">
-        <v>101.309713925352</v>
+        <v>53.41248463744171</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8617,10 +8617,10 @@
         <v>142.8754692792705</v>
       </c>
       <c r="M10" t="n">
-        <v>49.09708539094673</v>
+        <v>139.4864436873943</v>
       </c>
       <c r="N10" t="n">
-        <v>131.6729248303088</v>
+        <v>41.28356653386119</v>
       </c>
       <c r="O10" t="n">
         <v>153.1837627278771</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>255.1805474109826</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>219.2458784183948</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>72.81463927775364</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39.45876927577188</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>291.1886223546606</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>30.06636249675117</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.4564987129907</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9684631721218</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>102.5384052408787</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>143.4235298987631</v>
       </c>
       <c r="I16" t="n">
-        <v>91.84878806682688</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>82.19848714147011</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>112.513680696573</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2036695858855</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-3.446132268436486e-13</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-3.062439191126032e-12</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-3.325340003357269e-12</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.542233338928781e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-1.548983163957018e-12</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.513456027169013e-12</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-4.03943545279617e-12</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.088995643134695e-12</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897571.4486946161</v>
+        <v>897571.4486946159</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>946140.8796833484</v>
+        <v>946140.8796833486</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1078333.292193791</v>
+        <v>1078333.29219379</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>369214.3869487498</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="E2" t="n">
-        <v>306897.3890738285</v>
+        <v>306897.3890738286</v>
       </c>
       <c r="F2" t="n">
-        <v>323709.8844160821</v>
+        <v>323709.8844160822</v>
       </c>
       <c r="G2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="H2" t="n">
+        <v>369468.7964389276</v>
+      </c>
+      <c r="I2" t="n">
+        <v>369468.7964389279</v>
+      </c>
+      <c r="J2" t="n">
+        <v>369468.7964389276</v>
+      </c>
+      <c r="K2" t="n">
         <v>369468.7964389278</v>
-      </c>
-      <c r="I2" t="n">
-        <v>369468.7964389278</v>
-      </c>
-      <c r="J2" t="n">
-        <v>369468.7964389278</v>
-      </c>
-      <c r="K2" t="n">
-        <v>369468.7964389275</v>
       </c>
       <c r="L2" t="n">
         <v>369468.7964389278</v>
       </c>
       <c r="M2" t="n">
+        <v>369468.7964389275</v>
+      </c>
+      <c r="N2" t="n">
+        <v>369468.7964389276</v>
+      </c>
+      <c r="O2" t="n">
         <v>369468.7964389277</v>
       </c>
-      <c r="N2" t="n">
-        <v>369468.7964389275</v>
-      </c>
-      <c r="O2" t="n">
-        <v>369468.7964389275</v>
-      </c>
       <c r="P2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389276</v>
       </c>
     </row>
     <row r="3">
@@ -26366,43 +26366,43 @@
         <v>319725.1962388911</v>
       </c>
       <c r="C3" t="n">
-        <v>65327.33863394769</v>
+        <v>65327.33863394822</v>
       </c>
       <c r="D3" t="n">
-        <v>135602.4422504238</v>
+        <v>135602.4422504233</v>
       </c>
       <c r="E3" t="n">
         <v>670972.9537958342</v>
       </c>
       <c r="F3" t="n">
-        <v>94804.48211907553</v>
+        <v>94804.48211907566</v>
       </c>
       <c r="G3" t="n">
-        <v>142564.9280656561</v>
+        <v>142564.9280656562</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1799.076112044416</v>
+        <v>1799.07611204436</v>
       </c>
       <c r="K3" t="n">
-        <v>10557.53996691802</v>
+        <v>10557.53996691818</v>
       </c>
       <c r="L3" t="n">
-        <v>49781.78430109554</v>
+        <v>49781.78430109539</v>
       </c>
       <c r="M3" t="n">
-        <v>171134.9405490226</v>
+        <v>171134.9405490225</v>
       </c>
       <c r="N3" t="n">
-        <v>24926.34399050143</v>
+        <v>24926.34399050161</v>
       </c>
       <c r="O3" t="n">
-        <v>31063.9900397318</v>
+        <v>31063.99003973172</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>350365.4287484845</v>
       </c>
       <c r="C4" t="n">
-        <v>331559.1133141147</v>
+        <v>331559.1133141146</v>
       </c>
       <c r="D4" t="n">
         <v>289929.9471536342</v>
       </c>
       <c r="E4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712842</v>
       </c>
       <c r="F4" t="n">
         <v>11652.89964623107</v>
       </c>
       <c r="G4" t="n">
-        <v>42789.59501104702</v>
+        <v>42789.59501104697</v>
       </c>
       <c r="H4" t="n">
+        <v>42789.59501104693</v>
+      </c>
+      <c r="I4" t="n">
+        <v>42789.59501104694</v>
+      </c>
+      <c r="J4" t="n">
+        <v>42789.59501104706</v>
+      </c>
+      <c r="K4" t="n">
+        <v>42789.59501104706</v>
+      </c>
+      <c r="L4" t="n">
+        <v>42789.59501104696</v>
+      </c>
+      <c r="M4" t="n">
         <v>42789.59501104701</v>
       </c>
-      <c r="I4" t="n">
-        <v>42789.59501104703</v>
-      </c>
-      <c r="J4" t="n">
-        <v>42789.59501104693</v>
-      </c>
-      <c r="K4" t="n">
-        <v>42789.59501104696</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>42789.59501104694</v>
       </c>
-      <c r="M4" t="n">
-        <v>42789.59501104695</v>
-      </c>
-      <c r="N4" t="n">
-        <v>42789.59501104696</v>
-      </c>
       <c r="O4" t="n">
-        <v>42789.59501104702</v>
+        <v>42789.59501104691</v>
       </c>
       <c r="P4" t="n">
-        <v>42789.59501104707</v>
+        <v>42789.59501104688</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>41226.73635463382</v>
       </c>
       <c r="C5" t="n">
-        <v>44967.50091786117</v>
+        <v>44967.50091786119</v>
       </c>
       <c r="D5" t="n">
         <v>53538.12534878444</v>
@@ -26479,10 +26479,10 @@
         <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>82304.42556324908</v>
+        <v>82304.42556324911</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="H5" t="n">
         <v>95106.43410215527</v>
@@ -26497,7 +26497,7 @@
         <v>95106.43410215527</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
         <v>95106.43410215527</v>
@@ -26506,7 +26506,7 @@
         <v>95106.43410215527</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215527</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-342102.9743932596</v>
+        <v>-342104.3877793162</v>
       </c>
       <c r="C6" t="n">
-        <v>-72385.15642699639</v>
+        <v>-72385.15642699665</v>
       </c>
       <c r="D6" t="n">
-        <v>-109601.7183139153</v>
+        <v>-109601.7183139145</v>
       </c>
       <c r="E6" t="n">
-        <v>-449982.1402805274</v>
+        <v>-450329.7592103335</v>
       </c>
       <c r="F6" t="n">
-        <v>134948.0770875264</v>
+        <v>134693.8609096216</v>
       </c>
       <c r="G6" t="n">
-        <v>89007.8392600691</v>
+        <v>89007.83926006935</v>
       </c>
       <c r="H6" t="n">
         <v>231572.7673257255</v>
       </c>
       <c r="I6" t="n">
-        <v>231572.7673257253</v>
+        <v>231572.7673257258</v>
       </c>
       <c r="J6" t="n">
-        <v>229773.6912136812</v>
+        <v>229773.6912136809</v>
       </c>
       <c r="K6" t="n">
         <v>221015.2273588072</v>
       </c>
       <c r="L6" t="n">
-        <v>181790.9830246301</v>
+        <v>181790.9830246302</v>
       </c>
       <c r="M6" t="n">
-        <v>60437.82677670286</v>
+        <v>60437.82677670274</v>
       </c>
       <c r="N6" t="n">
         <v>206646.4233352238</v>
       </c>
       <c r="O6" t="n">
-        <v>200508.7772859934</v>
+        <v>200508.7772859938</v>
       </c>
       <c r="P6" t="n">
-        <v>231572.7673257256</v>
+        <v>231572.7673257254</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221405</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221405</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="M2" t="n">
         <v>31.610202352214</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31.61020235221402</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221392</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221394</v>
       </c>
       <c r="N2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>329.4070079604484</v>
       </c>
       <c r="C3" t="n">
-        <v>386.5940081264324</v>
+        <v>386.5940081264329</v>
       </c>
       <c r="D3" t="n">
         <v>509.8291662011503</v>
@@ -26790,7 +26790,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
-        <v>47.89722928791016</v>
+        <v>47.89722928791056</v>
       </c>
       <c r="D4" t="n">
         <v>144.6751566710423</v>
@@ -26799,7 +26799,7 @@
         <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>933.1719584113588</v>
+        <v>933.1719584113592</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26808,19 +26808,19 @@
         <v>1062.255112188953</v>
       </c>
       <c r="I4" t="n">
+        <v>1062.255112188953</v>
+      </c>
+      <c r="J4" t="n">
         <v>1062.255112188952</v>
       </c>
-      <c r="J4" t="n">
-        <v>1062.255112188953</v>
-      </c>
       <c r="K4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="L4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
@@ -26829,7 +26829,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="P4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-4.618527782440651e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-6.039613253960852e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>9.237055564881302e-14</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>329.4070079604484</v>
       </c>
       <c r="C3" t="n">
-        <v>57.18700016598399</v>
+        <v>57.18700016598444</v>
       </c>
       <c r="D3" t="n">
-        <v>123.235158074718</v>
+        <v>123.2351580747175</v>
       </c>
       <c r="E3" t="n">
         <v>579.9475343921479</v>
@@ -26972,13 +26972,13 @@
         <v>83.04763389470486</v>
       </c>
       <c r="G3" t="n">
-        <v>105.3355361321194</v>
+        <v>105.3355361321196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
-        <v>41.02118354619873</v>
+        <v>41.02118354619913</v>
       </c>
       <c r="D4" t="n">
-        <v>96.77792738313209</v>
+        <v>96.7779273831317</v>
       </c>
       <c r="E4" t="n">
         <v>686.7262987312508</v>
       </c>
       <c r="F4" t="n">
-        <v>101.7705030090657</v>
+        <v>101.7705030090661</v>
       </c>
       <c r="G4" t="n">
-        <v>129.0831537775938</v>
+        <v>129.0831537775936</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,25 +27033,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741712005</v>
+        <v>6.876045741711096</v>
       </c>
       <c r="K4" t="n">
-        <v>41.0211835461985</v>
+        <v>41.02118354619913</v>
       </c>
       <c r="L4" t="n">
-        <v>96.77792738313232</v>
+        <v>96.77792738313215</v>
       </c>
       <c r="M4" t="n">
-        <v>686.7262987312508</v>
+        <v>686.7262987312504</v>
       </c>
       <c r="N4" t="n">
-        <v>101.7705030090657</v>
+        <v>101.7705030090666</v>
       </c>
       <c r="O4" t="n">
-        <v>129.0831537775938</v>
+        <v>129.0831537775936</v>
       </c>
       <c r="P4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="K4" t="n">
-        <v>41.02118354619873</v>
+        <v>41.02118354619913</v>
       </c>
       <c r="L4" t="n">
-        <v>96.77792738313209</v>
+        <v>96.7779273831317</v>
       </c>
       <c r="M4" t="n">
         <v>686.7262987312508</v>
       </c>
       <c r="N4" t="n">
-        <v>101.7705030090657</v>
+        <v>101.7705030090661</v>
       </c>
       <c r="O4" t="n">
-        <v>129.0831537775938</v>
+        <v>129.0831537775936</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>358.3968460292961</v>
+        <v>359.2164706817081</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>325.9128341950639</v>
+        <v>319.0367884533524</v>
       </c>
       <c r="I2" t="n">
         <v>159.4227692713298</v>
@@ -27427,7 +27427,7 @@
         <v>66.68474421734859</v>
       </c>
       <c r="S2" t="n">
-        <v>172.7873180692124</v>
+        <v>178.8437391585118</v>
       </c>
       <c r="T2" t="n">
         <v>217.2989483486666</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>166.6520778990163</v>
+        <v>165.8324532466043</v>
       </c>
       <c r="D3" t="n">
-        <v>140.5690198229273</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.6349813347674</v>
@@ -27476,7 +27476,7 @@
         <v>105.3924797881105</v>
       </c>
       <c r="I3" t="n">
-        <v>65.00186858264601</v>
+        <v>58.12582284093458</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.16646052351003</v>
+        <v>49.29041478179859</v>
       </c>
       <c r="S3" t="n">
         <v>158.5224288518331</v>
@@ -27512,7 +27512,7 @@
         <v>197.3088320880702</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8947678817351</v>
+        <v>219.8383467924357</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>198.8066500355929</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>160.3707753569164</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,7 +27552,7 @@
         <v>167.396966721153</v>
       </c>
       <c r="H4" t="n">
-        <v>150.0698144085918</v>
+        <v>156.9458601503032</v>
       </c>
       <c r="I4" t="n">
         <v>137.5868948890097</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>30.36516396036725</v>
+        <v>36.42158504966668</v>
       </c>
       <c r="R4" t="n">
         <v>150.5844231579502</v>
@@ -27588,7 +27588,7 @@
         <v>213.6645778031988</v>
       </c>
       <c r="T4" t="n">
-        <v>225.4075354325207</v>
+        <v>218.5314896908092</v>
       </c>
       <c r="U4" t="n">
         <v>286.2866286671833</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>279.6469525948796</v>
       </c>
       <c r="X4" t="n">
-        <v>218.8336096473257</v>
+        <v>219.6532342997377</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>211.7086076103834</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>339.7424905154702</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>358.9788164538008</v>
       </c>
       <c r="G5" t="n">
-        <v>365.8513614608875</v>
+        <v>365.8513614608871</v>
       </c>
       <c r="H5" t="n">
-        <v>288.2465627299343</v>
+        <v>323.5583965450141</v>
       </c>
       <c r="I5" t="n">
         <v>150.5596463611826</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>52.24344613020692</v>
+        <v>4.346216842296243</v>
       </c>
       <c r="S5" t="n">
-        <v>173.6049501483315</v>
+        <v>173.6049501483314</v>
       </c>
       <c r="T5" t="n">
-        <v>168.3953428065792</v>
+        <v>216.2925720944893</v>
       </c>
       <c r="U5" t="n">
-        <v>203.3240918786193</v>
+        <v>251.2213211665295</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124.3453040930761</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>124.8112697004052</v>
       </c>
       <c r="D6" t="n">
-        <v>99.54783627672859</v>
+        <v>99.54783627672819</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>97.17198310547371</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.5119753344104</v>
@@ -27713,7 +27713,7 @@
         <v>104.2045007846625</v>
       </c>
       <c r="I6" t="n">
-        <v>60.7667935703538</v>
+        <v>60.76679357035377</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>48.52929850134333</v>
+        <v>0.6320692134327004</v>
       </c>
       <c r="S6" t="n">
-        <v>108.3404170572914</v>
+        <v>156.2376463452016</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8130315866311</v>
+        <v>154.6251520298395</v>
       </c>
       <c r="U6" t="n">
         <v>225.8866753817117</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>161.604832245736</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>119.3966133345829</v>
+        <v>167.2938426224931</v>
       </c>
       <c r="H7" t="n">
         <v>156.0289931640355</v>
       </c>
       <c r="I7" t="n">
-        <v>86.58844270685242</v>
+        <v>134.4856719947626</v>
       </c>
       <c r="J7" t="n">
-        <v>44.07161288389795</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>145.9475886854755</v>
+        <v>145.9475886854754</v>
       </c>
       <c r="S7" t="n">
-        <v>211.8674060110973</v>
+        <v>163.9701767231867</v>
       </c>
       <c r="T7" t="n">
-        <v>177.0696849957906</v>
+        <v>177.0696849957902</v>
       </c>
       <c r="U7" t="n">
-        <v>271.8794721841591</v>
+        <v>286.2810037163473</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>220.5977350999653</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>261.6294993722327</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>237.2552134012195</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>262.2008890706692</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>21.12316271950942</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>162.3156188332455</v>
       </c>
       <c r="T8" t="n">
-        <v>69.44872435019246</v>
+        <v>214.1238810212347</v>
       </c>
       <c r="U8" t="n">
         <v>251.1816877488572</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>241.9403094911647</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27932,13 +27932,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>77.35021291167578</v>
       </c>
       <c r="D9" t="n">
         <v>2.769908893596494</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>12.96992378435868</v>
       </c>
       <c r="F9" t="n">
         <v>0.3940557223416192</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>32.07159191921401</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.3140530013673</v>
@@ -27986,7 +27986,7 @@
         <v>195.7446060180399</v>
       </c>
       <c r="U9" t="n">
-        <v>98.4393584483943</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>61.0075391062621</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>35.15682351089504</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>22.57166442758557</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>3.940316347170096</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>22.39645861721772</v>
+        <v>167.07161528826</v>
       </c>
       <c r="H10" t="n">
         <v>154.0531901378539</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.177839155320683</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>135.9554396389582</v>
       </c>
       <c r="S10" t="n">
-        <v>63.31943297892008</v>
+        <v>207.9945896499623</v>
       </c>
       <c r="T10" t="n">
         <v>224.0173974919776</v>
       </c>
       <c r="U10" t="n">
-        <v>141.5937255543469</v>
+        <v>286.2688822253891</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>98.27977739318322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>100.3326145115615</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221483</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221405</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H38" t="n">
         <v>31.61020235221394</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I41" t="n">
-        <v>12.3803783660526</v>
+        <v>12.3803783660558</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235220919</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
   </sheetData>
@@ -31136,13 +31136,13 @@
         <v>145.4304255215856</v>
       </c>
       <c r="M3" t="n">
-        <v>147.4073999482616</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N3" t="n">
         <v>138.2177578250447</v>
       </c>
       <c r="O3" t="n">
-        <v>149.4722901861559</v>
+        <v>147.8696104706878</v>
       </c>
       <c r="P3" t="n">
         <v>135.2992670998302</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.554146766337416</v>
+        <v>1.554146766337417</v>
       </c>
       <c r="H5" t="n">
-        <v>15.91640557075306</v>
+        <v>15.91640557075308</v>
       </c>
       <c r="I5" t="n">
-        <v>59.91624320922327</v>
+        <v>59.91624320922334</v>
       </c>
       <c r="J5" t="n">
-        <v>131.9062641094303</v>
+        <v>131.9062641094305</v>
       </c>
       <c r="K5" t="n">
-        <v>197.6932967284932</v>
+        <v>197.6932967284934</v>
       </c>
       <c r="L5" t="n">
-        <v>245.2560158287919</v>
+        <v>245.2560158287922</v>
       </c>
       <c r="M5" t="n">
-        <v>272.8945733846449</v>
+        <v>272.8945733846452</v>
       </c>
       <c r="N5" t="n">
-        <v>277.3102928845011</v>
+        <v>277.3102928845015</v>
       </c>
       <c r="O5" t="n">
-        <v>261.8562459767334</v>
+        <v>261.8562459767338</v>
       </c>
       <c r="P5" t="n">
-        <v>223.4882476827785</v>
+        <v>223.4882476827787</v>
       </c>
       <c r="Q5" t="n">
-        <v>167.8303666133197</v>
+        <v>167.8303666133199</v>
       </c>
       <c r="R5" t="n">
-        <v>97.62567181094276</v>
+        <v>97.62567181094288</v>
       </c>
       <c r="S5" t="n">
-        <v>35.41511943791389</v>
+        <v>35.41511943791394</v>
       </c>
       <c r="T5" t="n">
-        <v>6.80327746964204</v>
+        <v>6.803277469642048</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1243317413069932</v>
+        <v>0.1243317413069934</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8315418288002508</v>
+        <v>0.8315418288002518</v>
       </c>
       <c r="H6" t="n">
-        <v>8.030943451834004</v>
+        <v>8.030943451834013</v>
       </c>
       <c r="I6" t="n">
-        <v>28.62983928106127</v>
+        <v>28.62983928106131</v>
       </c>
       <c r="J6" t="n">
-        <v>78.56246725520266</v>
+        <v>78.56246725520275</v>
       </c>
       <c r="K6" t="n">
-        <v>134.2757697848195</v>
+        <v>134.2757697848196</v>
       </c>
       <c r="L6" t="n">
-        <v>180.5503431348966</v>
+        <v>180.5503431348968</v>
       </c>
       <c r="M6" t="n">
-        <v>190.0312632099285</v>
+        <v>190.0312632099289</v>
       </c>
       <c r="N6" t="n">
-        <v>179.2389413712435</v>
+        <v>179.2389413712439</v>
       </c>
       <c r="O6" t="n">
-        <v>190.4934737323546</v>
+        <v>169.6458873241769</v>
       </c>
       <c r="P6" t="n">
-        <v>137.9404317598276</v>
+        <v>158.788018168006</v>
       </c>
       <c r="Q6" t="n">
-        <v>106.1455850236952</v>
+        <v>106.1455850236953</v>
       </c>
       <c r="R6" t="n">
-        <v>51.62853565129981</v>
+        <v>51.62853565129987</v>
       </c>
       <c r="S6" t="n">
-        <v>15.44552475863623</v>
+        <v>15.44552475863625</v>
       </c>
       <c r="T6" t="n">
-        <v>3.351697108190484</v>
+        <v>3.351697108190487</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05470669926317442</v>
+        <v>0.05470669926317449</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6971367359656977</v>
+        <v>0.6971367359656986</v>
       </c>
       <c r="H7" t="n">
-        <v>6.198179343404117</v>
+        <v>6.198179343404124</v>
       </c>
       <c r="I7" t="n">
-        <v>20.96480293249572</v>
+        <v>20.96480293249574</v>
       </c>
       <c r="J7" t="n">
-        <v>49.28756723277483</v>
+        <v>49.28756723277488</v>
       </c>
       <c r="K7" t="n">
-        <v>80.99461350583286</v>
+        <v>80.99461350583296</v>
       </c>
       <c r="L7" t="n">
-        <v>103.6452198180275</v>
+        <v>103.6452198180276</v>
       </c>
       <c r="M7" t="n">
-        <v>109.2793521659684</v>
+        <v>109.2793521659685</v>
       </c>
       <c r="N7" t="n">
-        <v>106.6809334228236</v>
+        <v>106.6809334228237</v>
       </c>
       <c r="O7" t="n">
-        <v>98.53710882540611</v>
+        <v>98.53710882540622</v>
       </c>
       <c r="P7" t="n">
-        <v>84.31551941170581</v>
+        <v>84.31551941170591</v>
       </c>
       <c r="Q7" t="n">
-        <v>58.37569522709129</v>
+        <v>58.37569522709136</v>
       </c>
       <c r="R7" t="n">
-        <v>31.345802691694</v>
+        <v>31.34580269169404</v>
       </c>
       <c r="S7" t="n">
-        <v>12.14919202587493</v>
+        <v>12.14919202587494</v>
       </c>
       <c r="T7" t="n">
-        <v>2.978675144580708</v>
+        <v>2.978675144580711</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03802564014358355</v>
+        <v>0.0380256401435836</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31604,10 +31604,10 @@
         <v>103.6059440484809</v>
       </c>
       <c r="K9" t="n">
-        <v>177.0790604908279</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>198.0271517815393</v>
+        <v>237.2647732980082</v>
       </c>
       <c r="M9" t="n">
         <v>277.8568955796269</v>
@@ -32087,19 +32087,19 @@
         <v>639.1892622959616</v>
       </c>
       <c r="N15" t="n">
-        <v>656.1067001019255</v>
+        <v>367.9707503128131</v>
       </c>
       <c r="O15" t="n">
         <v>600.2094497450066</v>
       </c>
       <c r="P15" t="n">
-        <v>182.6371824383094</v>
+        <v>481.7209988201763</v>
       </c>
       <c r="Q15" t="n">
         <v>322.0177304805551</v>
       </c>
       <c r="R15" t="n">
-        <v>156.6273705567187</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>46.8576514769499</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32306,37 +32306,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578282</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P18" t="n">
-        <v>430.2478021574337</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486996</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838146</v>
@@ -32397,31 +32397,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32543,37 +32543,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155583</v>
+        <v>287.3850959028138</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>186.6433699764084</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892349</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838146</v>
@@ -32634,31 +32634,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32786,13 +32786,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>434.8529321789907</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
         <v>696.5971294879669</v>
@@ -32804,13 +32804,13 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>215.4343416764904</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -33023,10 +33023,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115855</v>
+        <v>208.297560928827</v>
       </c>
       <c r="K27" t="n">
-        <v>367.4821503182113</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155584</v>
@@ -33047,7 +33047,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33260,7 +33260,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>443.943509024727</v>
@@ -33272,7 +33272,7 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>272.5760810583997</v>
+        <v>169.5095981964501</v>
       </c>
       <c r="O30" t="n">
         <v>654.1164009578283</v>
@@ -33281,10 +33281,10 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33500,7 +33500,7 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
         <v>596.9368339155584</v>
@@ -33509,19 +33509,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
-        <v>342.7055046018995</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33740,7 +33740,7 @@
         <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
-        <v>309.5179580259316</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
         <v>696.5971294879669</v>
@@ -33749,16 +33749,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33971,13 +33971,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
         <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
-        <v>442.4241216708505</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
         <v>696.5971294879669</v>
@@ -33986,16 +33986,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34208,7 +34208,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
         <v>443.943509024727</v>
@@ -34217,19 +34217,19 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
-        <v>176.0878742921115</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,7 +34445,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>208.297560928827</v>
       </c>
       <c r="K45" t="n">
         <v>443.943509024727</v>
@@ -34454,7 +34454,7 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
-        <v>542.0844172432589</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
         <v>715.0339827160628</v>
@@ -34466,10 +34466,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M2" t="n">
-        <v>6.876045741711437</v>
+        <v>2.180352849250227</v>
       </c>
       <c r="N2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.417872862493069</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M3" t="n">
-        <v>5.273366026243322</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N3" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O3" t="n">
-        <v>6.876045741711437</v>
+        <v>5.273366026243323</v>
       </c>
       <c r="P3" t="n">
         <v>1.324859685499973</v>
@@ -34857,16 +34857,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>36.47238684171528</v>
       </c>
       <c r="L5" t="n">
-        <v>9.489600858804664</v>
+        <v>9.489600858804977</v>
       </c>
       <c r="M5" t="n">
-        <v>42.54834015737217</v>
+        <v>47.89722928791056</v>
       </c>
       <c r="N5" t="n">
-        <v>47.89722928791019</v>
+        <v>47.89722928791053</v>
       </c>
       <c r="O5" t="n">
-        <v>41.82127597225314</v>
+        <v>47.89722928791056</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>47.89722928791016</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>41.99596335502241</v>
+        <v>41.99596335502261</v>
       </c>
       <c r="M6" t="n">
-        <v>47.89722928791016</v>
+        <v>47.89722928791056</v>
       </c>
       <c r="N6" t="n">
-        <v>47.89722928791016</v>
+        <v>47.89722928791056</v>
       </c>
       <c r="O6" t="n">
-        <v>47.89722928791016</v>
+        <v>27.04964287973244</v>
       </c>
       <c r="P6" t="n">
-        <v>3.966024345497416</v>
+        <v>24.81361075367576</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.89722928791016</v>
+        <v>47.89722928791056</v>
       </c>
       <c r="L7" t="n">
-        <v>47.89722928791016</v>
+        <v>45.96198770052023</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>47.89722928791056</v>
       </c>
       <c r="N7" t="n">
-        <v>45.96198770051984</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>47.89722928791056</v>
       </c>
       <c r="P7" t="n">
-        <v>47.89722928791016</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.23762151646886</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>59.47277200166514</v>
+        <v>98.710393518134</v>
       </c>
       <c r="M9" t="n">
         <v>135.7228616576086</v>
@@ -35337,10 +35337,10 @@
         <v>144.6751566710423</v>
       </c>
       <c r="M10" t="n">
+        <v>144.6751566710423</v>
+      </c>
+      <c r="N10" t="n">
         <v>54.28579837459468</v>
-      </c>
-      <c r="N10" t="n">
-        <v>144.6751566710423</v>
       </c>
       <c r="O10" t="n">
         <v>144.6751566710423</v>
@@ -35735,19 +35735,19 @@
         <v>497.0552283739433</v>
       </c>
       <c r="N15" t="n">
-        <v>524.7649880185922</v>
+        <v>236.6290382294798</v>
       </c>
       <c r="O15" t="n">
         <v>457.6132053005622</v>
       </c>
       <c r="P15" t="n">
-        <v>48.66277502397918</v>
+        <v>347.7465914058461</v>
       </c>
       <c r="Q15" t="n">
         <v>182.0359563945336</v>
       </c>
       <c r="R15" t="n">
-        <v>10.94786659275474</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133838</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P18" t="n">
-        <v>296.2733947431035</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895098</v>
@@ -36121,28 +36121,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356841</v>
+        <v>148.8307161229396</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>44.04712553196399</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749046</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,13 +36282,13 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O22" t="n">
         <v>381.9794231908712</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>297.0114932046317</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
@@ -36452,13 +36452,13 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>81.45993426216013</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414986</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.9061636449188</v>
+        <v>81.45993426216029</v>
       </c>
       <c r="K27" t="n">
-        <v>229.6407113438523</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356842</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>306.102070050368</v>
@@ -36920,7 +36920,7 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>141.2343689750664</v>
+        <v>38.16788611311679</v>
       </c>
       <c r="O30" t="n">
         <v>511.5201565133839</v>
@@ -36929,10 +36929,10 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K31" t="n">
         <v>277.1256801414978</v>
@@ -36996,19 +36996,19 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
         <v>458.3824541356842</v>
@@ -37157,19 +37157,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>211.3637925185662</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
         <v>401.8727935817349</v>
@@ -37388,7 +37388,7 @@
         <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
-        <v>170.9635782460575</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
@@ -37397,16 +37397,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P37" t="n">
         <v>307.6533340553059</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>303.8697418909763</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
@@ -37634,16 +37634,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
         <v>306.102070050368</v>
@@ -37865,19 +37865,19 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
-        <v>33.95384037009313</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.205929019356</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L43" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M43" t="n">
-        <v>432.49425388951</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908714</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641583</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>81.45993426216026</v>
       </c>
       <c r="K45" t="n">
         <v>306.102070050368</v>
@@ -38102,7 +38102,7 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
-        <v>399.9503833212407</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
         <v>583.6922706327296</v>
@@ -38114,10 +38114,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.205929019356</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L46" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
-        <v>432.49425388951</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908714</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4502995641533</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
